--- a/詳細設計/詳細設計書.xlsx
+++ b/詳細設計/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220E306-C64E-48C4-867E-2D76C73E0BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906A160F-E046-46D0-BF99-CD225156C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="774" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="32" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面レイアウト!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">更新仕様書!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">項目説明!$A$1:$AG$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AE$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">補足説明!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">目次・概要!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">IO関連図!$1:$3</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="177">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1700,38 +1700,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PL</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Rev 1.00</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初版作成</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -1768,6 +1736,13 @@
   </si>
   <si>
     <t>D.Iブログ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2204,6 +2179,15 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2213,23 +2197,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2241,6 +2210,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2367,14 +2342,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>235857</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -2393,7 +2368,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7330440" y="160020"/>
+          <a:off x="6875417" y="160020"/>
           <a:ext cx="1536700" cy="166370"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
@@ -2492,16 +2467,13 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>2005/5/15</a:t>
-            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4441,7 +4413,7 @@
   <dimension ref="A1:FT42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4838,7 +4810,7 @@
       <c r="D8" s="73"/>
       <c r="E8" s="74"/>
       <c r="F8" s="78" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G8" s="79"/>
       <c r="H8" s="79"/>
@@ -5100,7 +5072,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="84" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M16" s="85"/>
       <c r="N16" s="85"/>
@@ -5387,9 +5359,7 @@
       <c r="Z24" s="27"/>
       <c r="AA24" s="27"/>
       <c r="AB24" s="28"/>
-      <c r="AC24" s="30" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC24" s="30"/>
       <c r="AD24" s="28" t="s">
         <v>8</v>
       </c>
@@ -5398,21 +5368,15 @@
     </row>
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
-        <v>171</v>
-      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="86">
-        <v>38487</v>
-      </c>
+      <c r="F25" s="86"/>
       <c r="G25" s="87"/>
       <c r="H25" s="87"/>
       <c r="I25" s="88"/>
-      <c r="J25" s="26" t="s">
-        <v>172</v>
-      </c>
+      <c r="J25" s="26"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -5431,12 +5395,8 @@
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
       <c r="AB25" s="28"/>
-      <c r="AC25" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD25" s="28" t="s">
-        <v>174</v>
-      </c>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="28"/>
       <c r="AE25" s="19"/>
       <c r="AF25" s="24"/>
     </row>
@@ -6039,8 +5999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:AC2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6053,121 +6013,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="94"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="91"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="94"/>
+    </row>
+    <row r="3" spans="1:33" ht="12">
+      <c r="A3" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="91"/>
-    </row>
-    <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="91"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -7566,15 +7528,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7591,7 +7553,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -7641,90 +7603,90 @@
       <c r="AG1" s="95"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89" t="s">
+      <c r="A3" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" s="91"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -9011,7 +8973,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV3"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -9024,127 +8986,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="94"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="91"/>
     </row>
     <row r="2" spans="1:33" s="12" customFormat="1" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:33" s="12" customFormat="1" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89" t="s">
+      <c r="A3" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" s="91"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -9472,63 +9434,63 @@
     </row>
     <row r="12" spans="1:33" ht="12.75" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="98" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="98" t="s">
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="98" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="100"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="98" t="s">
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="100"/>
-      <c r="S12" s="98" t="s">
+      <c r="R12" s="98"/>
+      <c r="S12" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="99"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="98" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="98" t="s">
+      <c r="W12" s="97"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="100"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="98"/>
       <c r="AF12" s="54"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:33" ht="12.75" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="55" t="s">
         <v>39</v>
       </c>
@@ -10597,12 +10559,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:R12"/>
@@ -10613,6 +10569,12 @@
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="K13:M13"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
@@ -10688,90 +10650,90 @@
       <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89" t="s">
+      <c r="A3" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" s="91"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6"/>
@@ -12641,90 +12603,90 @@
       <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89" t="s">
+      <c r="A3" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" s="91"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -14340,15 +14302,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14364,8 +14326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14415,90 +14377,84 @@
       <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="94"/>
+    </row>
+    <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
+      <c r="A3" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="91"/>
-    </row>
-    <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" s="91"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
       <c r="A4" s="115" t="s">
@@ -16213,7 +16169,7 @@
   <dimension ref="A1:FU43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16226,127 +16182,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="94"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="91"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="94"/>
+    </row>
+    <row r="3" spans="1:177" ht="12">
+      <c r="A3" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="91"/>
-    </row>
-    <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG3" s="91"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="13"/>
@@ -17761,15 +17711,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
